--- a/data/processed/state_overviews/south-carolina_overview.xlsx
+++ b/data/processed/state_overviews/south-carolina_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1290</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1,290</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Abbeville County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Aiken County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>38</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Allendale County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Anderson County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>39</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Bamberg County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>6</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Barnwell County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Beaufort County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>54</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Berkeley County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>14</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Calhoun County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>2</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Charleston County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>192</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Cherokee County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>17</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Chester County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>6</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Chesterfield County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>15</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Clarendon County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>10</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Colleton County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>8</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Darlington County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>14</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Dillon County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Dorchester County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>20</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Edgefield County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>5</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Fairfield County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>5</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Florence County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>41</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Georgetown County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>31</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Greenville County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>134</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Greenwood County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>32</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Hampton County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>1</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Horry County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>59</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Jasper County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>7</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Kershaw County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>19</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Lancaster County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>15</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Laurens County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>13</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Lee County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>5</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Lexington County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>39</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>9</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Marlboro County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>8</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>McCormick County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>4</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Newberry County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>9</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Oconee County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>11</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Orangeburg County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>20</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Pickens County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>26</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Richland County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>183</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Spartanburg County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>83</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Sumter County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>23</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>3</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Williamsburg County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>8</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>York County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>51</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,27 +1906,61 @@
           <t>Saluda County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>0</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1,290</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$2,159,545,458</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.53%</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-19.89%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>70.54%</t>
         </is>
       </c>
     </row>
@@ -1889,8 +2015,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>128</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1919,8 +2047,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>129</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1949,8 +2079,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>153</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1979,8 +2111,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>205</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2009,8 +2143,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>130</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2039,8 +2175,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>372</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2069,8 +2207,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B8">
-        <v>173</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2099,8 +2239,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1290</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1,290</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2174,8 +2316,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>445</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2204,8 +2348,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>367</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2234,8 +2380,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>211</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2264,8 +2412,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>70</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2294,8 +2444,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>116</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2324,8 +2476,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>81</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2354,8 +2508,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1290</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,290</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2429,8 +2585,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>112</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2459,8 +2617,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>177</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2489,8 +2649,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>69</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2519,8 +2681,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>132</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2549,8 +2713,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>11</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2579,8 +2745,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>411</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2609,8 +2777,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2639,8 +2809,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2669,8 +2841,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>115</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2699,8 +2873,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>32</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2729,8 +2905,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>210</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2759,8 +2937,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>14</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2789,8 +2969,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>1290</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1,290</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/south-carolina_overview.xlsx
+++ b/data/processed/state_overviews/south-carolina_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,1536 +431,1536 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abbeville County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$3,434,487</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.24%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aiken County</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1,290</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$43,903,074</t>
+          <t>$2,159,545,458</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.78%</t>
+          <t>9.53%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-9.39%</t>
+          <t>-19.89%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>70.54%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Allendale County</t>
+          <t>Abbeville County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$7,155,284</t>
+          <t>$3,434,487</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-9.82%</t>
+          <t>14.24%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-28.33%</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anderson County</t>
+          <t>Aiken County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$26,939,969</t>
+          <t>$43,903,074</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.43%</t>
+          <t>14.78%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-4.78%</t>
+          <t>-9.39%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>56.41%</t>
+          <t>63.16%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bamberg County</t>
+          <t>Allendale County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$21,314,887</t>
+          <t>$7,155,284</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.02%</t>
+          <t>-9.82%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-70.85%</t>
+          <t>-28.33%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barnwell County</t>
+          <t>Anderson County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$4,595,183</t>
+          <t>$26,939,969</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.28%</t>
+          <t>14.43%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-46.74%</t>
+          <t>-4.78%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>56.41%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Beaufort County</t>
+          <t>Bamberg County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$40,988,390</t>
+          <t>$21,314,887</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>6.02%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-17.95%</t>
+          <t>-70.85%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>70.37%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Berkeley County</t>
+          <t>Barnwell County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$33,967,783</t>
+          <t>$4,595,183</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.96%</t>
+          <t>15.28%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-44.42%</t>
+          <t>-46.74%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>78.57%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Calhoun County</t>
+          <t>Beaufort County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$266,189</t>
+          <t>$40,988,390</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-4.79%</t>
+          <t>9.68%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-81.43%</t>
+          <t>-17.95%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>70.37%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Charleston County</t>
+          <t>Berkeley County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$307,059,600</t>
+          <t>$33,967,783</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.37%</t>
+          <t>4.96%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-6.50%</t>
+          <t>-44.42%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60.94%</t>
+          <t>78.57%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cherokee County</t>
+          <t>Calhoun County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$17,447,779</t>
+          <t>$266,189</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.15%</t>
+          <t>-4.79%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-35.02%</t>
+          <t>-81.43%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chester County</t>
+          <t>Charleston County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>192</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$8,797,988</t>
+          <t>$307,059,600</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.29%</t>
+          <t>14.37%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-67.12%</t>
+          <t>-6.50%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>60.94%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chesterfield County</t>
+          <t>Cherokee County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$12,350,960</t>
+          <t>$17,447,779</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>8.15%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-57.75%</t>
+          <t>-35.02%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>93.33%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Clarendon County</t>
+          <t>Chester County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$9,468,914</t>
+          <t>$8,797,988</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.65%</t>
+          <t>9.29%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-76.35%</t>
+          <t>-67.12%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colleton County</t>
+          <t>Chesterfield County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$7,694,934</t>
+          <t>$12,350,960</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.57%</t>
+          <t>9.19%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-19.27%</t>
+          <t>-57.75%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>93.33%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Darlington County</t>
+          <t>Clarendon County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$40,129,907</t>
+          <t>$9,468,914</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.43%</t>
+          <t>5.65%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-21.41%</t>
+          <t>-76.35%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>78.57%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dillon County</t>
+          <t>Colleton County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$451,297</t>
+          <t>$7,694,934</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>11.57%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-62.63%</t>
+          <t>-19.27%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dorchester County</t>
+          <t>Darlington County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$7,666,089</t>
+          <t>$40,129,907</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16.26%</t>
+          <t>10.43%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-12.70%</t>
+          <t>-21.41%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>78.57%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Edgefield County</t>
+          <t>Dillon County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$9,119,387</t>
+          <t>$451,297</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13.43%</t>
+          <t>1.77%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.42%</t>
+          <t>-62.63%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fairfield County</t>
+          <t>Dorchester County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$4,546,565</t>
+          <t>$7,666,089</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.29%</t>
+          <t>16.26%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-37.26%</t>
+          <t>-12.70%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Florence County</t>
+          <t>Edgefield County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$56,471,116</t>
+          <t>$9,119,387</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.39%</t>
+          <t>13.43%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-27.34%</t>
+          <t>1.42%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>73.17%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Georgetown County</t>
+          <t>Fairfield County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$10,684,826</t>
+          <t>$4,546,565</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15.88%</t>
+          <t>4.29%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>-37.26%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>48.39%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Greenville County</t>
+          <t>Florence County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$295,039,674</t>
+          <t>$56,471,116</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9.22%</t>
+          <t>10.39%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-7.66%</t>
+          <t>-27.34%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>65.67%</t>
+          <t>73.17%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Greenwood County</t>
+          <t>Georgetown County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$64,030,839</t>
+          <t>$10,684,826</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>15.88%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-40.86%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>81.25%</t>
+          <t>48.39%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hampton County</t>
+          <t>Greenville County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$2,871,333</t>
+          <t>$295,039,674</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15.49%</t>
+          <t>9.22%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-44.65%</t>
+          <t>-7.66%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>65.67%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Horry County</t>
+          <t>Greenwood County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$91,845,274</t>
+          <t>$64,030,839</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.36%</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-11.04%</t>
+          <t>-40.86%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>67.80%</t>
+          <t>81.25%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jasper County</t>
+          <t>Hampton County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$28,151,468</t>
+          <t>$2,871,333</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>15.49%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-40.98%</t>
+          <t>-44.65%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kershaw County</t>
+          <t>Horry County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$11,594,569</t>
+          <t>$91,845,274</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8.31%</t>
+          <t>12.36%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-38.69%</t>
+          <t>-11.04%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>68.42%</t>
+          <t>67.80%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lancaster County</t>
+          <t>Jasper County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$15,305,886</t>
+          <t>$28,151,468</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-62.26%</t>
+          <t>-40.98%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Laurens County</t>
+          <t>Kershaw County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$9,064,875</t>
+          <t>$11,594,569</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17.97%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>-38.69%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>68.42%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lee County</t>
+          <t>Lancaster County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$3,449,096</t>
+          <t>$15,305,886</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.59%</t>
+          <t>0.16%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-39.21%</t>
+          <t>-62.26%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>73.33%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lexington County</t>
+          <t>Laurens County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$86,454,053</t>
+          <t>$9,064,875</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7.46%</t>
+          <t>17.97%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-55.87%</t>
+          <t>1.21%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>79.49%</t>
+          <t>46.15%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Lee County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$8,741,504</t>
+          <t>$3,449,096</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.86%</t>
+          <t>5.59%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-29.17%</t>
+          <t>-39.21%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Marlboro County</t>
+          <t>Lexington County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$5,302,850</t>
+          <t>$86,454,053</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5.35%</t>
+          <t>7.46%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-39.80%</t>
+          <t>-55.87%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>79.49%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>McCormick County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$673,259</t>
+          <t>$8,741,504</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21.81%</t>
+          <t>4.86%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-11.36%</t>
+          <t>-29.17%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Newberry County</t>
+          <t>Marlboro County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$5,154,718</t>
+          <t>$5,302,850</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.16%</t>
+          <t>5.35%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-10.66%</t>
+          <t>-39.80%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Oconee County</t>
+          <t>McCormick County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$3,197,269</t>
+          <t>$673,259</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.81%</t>
+          <t>21.81%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-16.66%</t>
+          <t>-11.36%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Orangeburg County</t>
+          <t>Newberry County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$54,712,898</t>
+          <t>$5,154,718</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12.53%</t>
+          <t>1.16%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-39.69%</t>
+          <t>-10.66%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pickens County</t>
+          <t>Oconee County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$25,901,816</t>
+          <t>$3,197,269</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11.31%</t>
+          <t>4.81%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-28.17%</t>
+          <t>-16.66%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>80.77%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Richland County</t>
+          <t>Orangeburg County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$521,399,394</t>
+          <t>$54,712,898</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.51%</t>
+          <t>12.53%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-44.64%</t>
+          <t>-39.69%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>81.97%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spartanburg County</t>
+          <t>Pickens County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$110,898,506</t>
+          <t>$25,901,816</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.74%</t>
+          <t>11.31%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-26.37%</t>
+          <t>-28.17%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>74.70%</t>
+          <t>80.77%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sumter County</t>
+          <t>Richland County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$24,190,179</t>
+          <t>$521,399,394</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13.17%</t>
+          <t>5.51%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-11.22%</t>
+          <t>-44.64%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>60.87%</t>
+          <t>81.97%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Spartanburg County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$365,027</t>
+          <t>$110,898,506</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>33.06%</t>
+          <t>3.74%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-12.48%</t>
+          <t>-26.37%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>74.70%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Williamsburg County</t>
+          <t>Sumter County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$2,845,593</t>
+          <t>$24,190,179</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.30%</t>
+          <t>13.17%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-79.59%</t>
+          <t>-11.22%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>60.87%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>York County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$113,900,770</t>
+          <t>$365,027</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11.71%</t>
+          <t>33.06%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-17.29%</t>
+          <t>-12.48%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Saluda County</t>
+          <t>Williamsburg County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,845,593</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>5.30%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-79.59%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>York County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1,290</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$2,159,545,458</t>
+          <t>$113,900,770</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>11.71%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-19.89%</t>
+          <t>-17.29%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>70.54%</t>
+          <t>64.71%</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1980,288 +1980,320 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$146,652,755</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.99%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-12.54%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63.28%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>1,290</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$146,596,002</t>
+          <t>$2,159,545,458</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>9.53%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-45.73%</t>
+          <t>-19.89%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>78.29%</t>
+          <t>70.54%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$151,319,583</t>
+          <t>$146,652,755</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.20%</t>
+          <t>11.99%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-13.32%</t>
+          <t>-12.54%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68.63%</t>
+          <t>63.28%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$401,916,182</t>
+          <t>$146,596,002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.01%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-11.82%</t>
+          <t>-45.73%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>67.80%</t>
+          <t>78.29%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$180,702,155</t>
+          <t>$151,319,583</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.69%</t>
+          <t>11.20%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-29.81%</t>
+          <t>-13.32%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.54%</t>
+          <t>68.63%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$908,885,576</t>
+          <t>$401,916,182</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-22.55%</t>
+          <t>-11.82%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72.58%</t>
+          <t>67.80%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$223,473,205</t>
+          <t>$180,702,155</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.75%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-18.56%</t>
+          <t>-29.81%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>69.94%</t>
+          <t>71.54%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1,290</t>
+          <t>372</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$2,159,545,458</t>
+          <t>$908,885,576</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>9.68%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-19.89%</t>
+          <t>-22.55%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70.54%</t>
+          <t>72.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7th Congressional district</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$223,473,205</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.75%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-18.56%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>69.94%</t>
         </is>
       </c>
     </row>
@@ -2286,34 +2318,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2345,128 +2377,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$408,078,436</t>
+          <t>$1,350,165,902</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>5.44%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-20.70%</t>
+          <t>-17.50%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.03%</t>
+          <t>72.41%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>367</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$59,167,143</t>
+          <t>$408,078,436</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.59%</t>
+          <t>-20.70%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.30%</t>
+          <t>70.03%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>211</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$280,917,473</t>
+          <t>$59,167,143</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.10%</t>
+          <t>9.53%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-61.57%</t>
+          <t>-11.59%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>67.30%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,350,165,902</t>
+          <t>$280,917,473</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.44%</t>
+          <t>6.10%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-17.50%</t>
+          <t>-61.57%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.41%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2555,34 +2587,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2614,7 +2646,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2646,7 +2678,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2678,7 +2710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2742,7 +2774,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2774,7 +2806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2806,160 +2838,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$673,895</t>
+          <t>$126,619,039</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32.91%</t>
+          <t>9.22%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.97%</t>
+          <t>-16.66%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>70.43%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$126,619,039</t>
+          <t>$6,579,476</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.22%</t>
+          <t>11.29%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-16.66%</t>
+          <t>-1.19%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70.43%</t>
+          <t>53.12%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$6,579,476</t>
+          <t>$673,895</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.29%</t>
+          <t>32.91%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>53.12%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$392,154,515</t>
+          <t>$102,331,865</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>5.41%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-20.56%</t>
+          <t>-3.61%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70.48%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$102,331,865</t>
+          <t>$392,154,515</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.41%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-3.61%</t>
+          <t>-20.56%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>70.48%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/south-carolina_overview.xlsx
+++ b/data/processed/state_overviews/south-carolina_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>70.54%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1,290</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$2,159,545,458</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.53%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-19.89%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.54%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>70.54%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,290</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$2,159,545,458</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.53%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-19.89%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>70.54%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$3,434,487</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>14.24%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.52%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>63.16%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$43,903,074</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>14.78%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-9.39%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>63.16%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$7,155,284</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>-9.82%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-28.33%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>56.41%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$26,939,969</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>14.43%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-4.78%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>56.41%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$21,314,887</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>6.02%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-70.85%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$4,595,183</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>15.28%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-46.74%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>70.37%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$40,988,390</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>9.68%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-17.95%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>70.37%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>78.57%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$33,967,783</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>4.96%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-44.42%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>78.57%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$266,189</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>-4.79%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-81.43%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>60.94%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$307,059,600</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>14.37%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-6.50%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>60.94%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$17,447,779</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>8.15%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-35.02%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$8,797,988</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>9.29%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-67.12%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>93.33%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$12,350,960</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>9.19%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-57.75%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>93.33%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$9,468,914</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>5.65%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-76.35%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$7,694,934</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>11.57%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-19.27%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>78.57%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$40,129,907</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-21.41%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>78.57%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$451,297</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1.77%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-62.63%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$7,666,089</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>16.26%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-12.70%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$9,119,387</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>13.43%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1.42%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$4,546,565</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>4.29%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-37.26%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>73.17%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$56,471,116</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>10.39%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-27.34%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>73.17%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>48.39%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$10,684,826</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>0.13%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>48.39%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>65.67%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>134</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$295,039,674</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>9.22%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-7.66%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>65.67%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$64,030,839</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>4.21%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-40.86%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>81.25%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$2,871,333</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>15.49%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-44.65%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>67.80%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$91,845,274</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>12.36%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-11.04%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>67.80%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$28,151,468</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.35%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-40.98%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>68.42%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$11,594,569</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-38.69%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>68.42%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>73.33%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$15,305,886</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.16%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-62.26%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>73.33%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$9,064,875</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>17.97%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1.21%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>46.15%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$3,449,096</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>5.59%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-39.21%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>79.49%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$86,454,053</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>7.46%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-55.87%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>79.49%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$8,741,504</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>4.86%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-29.17%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$5,302,850</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>5.35%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-39.80%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$673,259</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>21.81%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-11.36%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$5,154,718</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1.16%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-10.66%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$3,197,269</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>4.81%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-16.66%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$54,712,898</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>12.53%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-39.69%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>80.77%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$25,901,816</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>11.31%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-28.17%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>80.77%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>81.97%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>183</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$521,399,394</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>5.51%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-44.64%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>81.97%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>74.70%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$110,898,506</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>3.74%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-26.37%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>74.70%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>60.87%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$24,190,179</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>13.17%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-11.22%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>60.87%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$365,027</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>33.06%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-12.48%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$2,845,593</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>5.30%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-79.59%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>64.71%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$113,900,770</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>11.71%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-17.29%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>64.71%</t>
         </is>
       </c>
     </row>
@@ -1985,27 +1985,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2017,27 +2017,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2049,251 +2049,251 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>70.54%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,290</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$2,159,545,458</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.53%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-19.89%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>70.54%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>63.28%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>128</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$146,652,755</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.99%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-12.54%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>63.28%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>78.29%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>129</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$146,596,002</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.98%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-45.73%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>78.29%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>68.63%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>153</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$151,319,583</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>11.20%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-13.32%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>68.63%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>67.80%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>205</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$401,916,182</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6.01%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-11.82%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>67.80%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>71.54%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>130</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$180,702,155</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.69%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-29.81%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>71.54%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>72.58%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>372</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$908,885,576</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>9.68%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-22.55%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>72.58%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>69.94%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>173</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$223,473,205</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>11.75%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-18.56%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>69.94%</t>
         </is>
       </c>
     </row>
@@ -2318,187 +2318,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>71.69%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>445</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$55,442,191</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>10.30%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-24.67%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>71.69%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>70.03%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,350,165,902</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.44%</t>
+          <t>$408,078,436</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-17.50%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72.41%</t>
+          <t>-20.70%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>67.30%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$408,078,436</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>$59,167,143</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-20.70%</t>
+          <t>9.53%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.03%</t>
+          <t>-11.59%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$59,167,143</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>$280,917,473</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-11.59%</t>
+          <t>6.10%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>67.30%</t>
+          <t>-61.57%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72.41%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$280,917,473</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.10%</t>
+          <t>$1,350,165,902</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-61.57%</t>
+          <t>5.44%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>-17.50%</t>
         </is>
       </c>
     </row>
@@ -2510,27 +2510,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>64.20%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$5,774,313</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>33.61%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-13.06%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>64.20%</t>
         </is>
       </c>
     </row>
@@ -2542,27 +2542,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>70.54%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1,290</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,159,545,458</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.53%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-19.89%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>70.54%</t>
         </is>
       </c>
     </row>
@@ -2587,155 +2587,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>75.89%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>112</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$38,775,421</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.78%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-13.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>75.89%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>78.53%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>177</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$859,037,582</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.93%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-58.22%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>78.53%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>46.38%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$40,421,146</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>16.12%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.30%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>46.38%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>77.27%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>132</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$230,459,574</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.43%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-29.27%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>77.27%</t>
         </is>
       </c>
     </row>
@@ -2747,251 +2747,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$68,073,281</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>5.61%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-13.05%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>69.34%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>411</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$293,214,882</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.07%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-19.12%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>69.34%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,204,782</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>3.21%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-0.54%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$126,619,039</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.22%</t>
+          <t>$673,895</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-16.66%</t>
+          <t>32.91%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70.43%</t>
+          <t>8.97%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>70.43%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$6,579,476</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.29%</t>
+          <t>$126,619,039</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>9.22%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>53.12%</t>
+          <t>-16.66%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>53.12%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$673,895</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>32.91%</t>
+          <t>$6,579,476</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.97%</t>
+          <t>11.29%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-1.19%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>70.48%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$102,331,865</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.41%</t>
+          <t>$392,154,515</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-3.61%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>-20.56%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$392,154,515</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>$102,331,865</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-20.56%</t>
+          <t>5.41%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>70.48%</t>
+          <t>-3.61%</t>
         </is>
       </c>
     </row>
@@ -3003,27 +3003,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>70.54%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1,290</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$2,159,545,458</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.53%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-19.89%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>70.54%</t>
         </is>
       </c>
     </row>
